--- a/inst/extdata/ball_berry_2.xlsx
+++ b/inst/extdata/ball_berry_2.xlsx
@@ -1911,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BR5" workbookViewId="0">
       <selection activeCell="CA17" sqref="CA17:CA44"/>
     </sheetView>
   </sheetViews>
@@ -4191,22 +4191,22 @@
       </c>
       <c r="J17">
         <f t="shared" ref="J17:J44" si="0">N17 * AA17 /  BY17</f>
-        <v>3.0748554960711938</v>
+        <v>4.8572216323390327</v>
       </c>
       <c r="K17">
         <v>1629726933</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:L44" si="1">(M17)/1000</f>
-        <v>4.6933398483919768E-3</v>
+        <v>5.2506045107306434E-3</v>
       </c>
       <c r="M17">
         <f t="shared" ref="M17:M44" si="2">1000*CE17*AK17*(CA17-CB17)/(100*BT17*(1000-AK17*CA17))</f>
-        <v>4.693339848391977</v>
+        <v>5.2506045107306436</v>
       </c>
       <c r="N17">
         <f t="shared" ref="N17:N44" si="3">CE17*AK17*(BZ17-BY17*(1000-AK17*CB17)/(1000-AK17*CA17))/(100*BT17)</f>
-        <v>18.779369891439373</v>
+        <v>29.059964600554036</v>
       </c>
       <c r="O17">
         <f t="shared" ref="O17:O44" si="4">BY17 - IF(AK17&gt;1, N17*BT17*100/(AM17*CM17), 0)</f>
@@ -4214,11 +4214,11 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17:P44" si="5">((V17-L17/2)*O17-N17)/(V17+L17/2)</f>
-        <v>307.32173745940952</v>
+        <v>276.04177228014049</v>
       </c>
       <c r="Q17">
         <f t="shared" ref="Q17:Q44" si="6">P17*(CF17+CG17)/1000</f>
-        <v>30.533051694554089</v>
+        <v>27.425322310625891</v>
       </c>
       <c r="R17">
         <f t="shared" ref="R17:R44" si="7">(BY17 - IF(AK17&gt;1, N17*BT17*100/(AM17*CM17), 0))*(CF17+CG17)/1000</f>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="S17">
         <f t="shared" ref="S17:S44" si="8">2/((1/U17-1/T17)+SIGN(U17)*SQRT((1/U17-1/T17)*(1/U17-1/T17) + 4*BU17/((BU17+1)*(BU17+1))*(2*1/U17*1/T17-1/T17*1/T17)))</f>
-        <v>0.31989721425819723</v>
+        <v>0.37702175487579459</v>
       </c>
       <c r="T17">
         <f t="shared" ref="T17:T44" si="9">IF(LEFT(BV17,1)&lt;&gt;"0",IF(LEFT(BV17,1)="1",3,BW17),$D$5+$E$5*(CM17*CF17/($K$5*1000))+$F$5*(CM17*CF17/($K$5*1000))*MAX(MIN(BT17,$J$5),$I$5)*MAX(MIN(BT17,$J$5),$I$5)+$G$5*MAX(MIN(BT17,$J$5),$I$5)*(CM17*CF17/($K$5*1000))+$H$5*(CM17*CF17/($K$5*1000))*(CM17*CF17/($K$5*1000)))</f>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="U17">
         <f t="shared" ref="U17:U44" si="10">L17*(1000-(1000*0.61365*EXP(17.502*Y17/(240.97+Y17))/(CF17+CG17)+CA17)/2)/(1000*0.61365*EXP(17.502*Y17/(240.97+Y17))/(CF17+CG17)-CA17)</f>
-        <v>0.30183478879023107</v>
+        <v>0.35220100739801113</v>
       </c>
       <c r="V17">
         <f t="shared" ref="V17:V44" si="11">1/((BU17+1)/(S17/1.6)+1/(T17/1.37)) + BU17/((BU17+1)/(S17/1.6) + BU17/(T17/1.37))</f>
-        <v>0.19018454027921228</v>
+        <v>0.22221936256637159</v>
       </c>
       <c r="W17">
         <f t="shared" ref="W17:W44" si="12">(BP17*BS17)</f>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="X17">
         <f t="shared" ref="X17:X44" si="13">(CH17+(W17+2*0.95*0.0000000567*(((CH17+$B$7)+273)^4-(CH17+273)^4)-44100*L17)/(1.84*29.3*T17+8*0.95*0.0000000567*(CH17+273)^3))</f>
-        <v>31.106304791715043</v>
+        <v>30.96293632969256</v>
       </c>
       <c r="Y17">
         <f t="shared" ref="Y17:Y44" si="14">($C$7*CI17+$D$7*CJ17+$E$7*X17)</f>
@@ -4258,11 +4258,11 @@
       </c>
       <c r="AA17">
         <f t="shared" ref="AA17:AA44" si="16">(AB17/AC17*100)</f>
-        <v>67.946598664889237</v>
+        <v>69.361242831132898</v>
       </c>
       <c r="AB17">
         <f t="shared" ref="AB17:AB44" si="17">CA17*(CF17+CG17)/1000</f>
-        <v>2.9684632429960853</v>
+        <v>3.0302664721779329</v>
       </c>
       <c r="AC17">
         <f t="shared" ref="AC17:AC44" si="18">0.61365*EXP(17.502*CH17/(240.97+CH17))</f>
@@ -4270,11 +4270,11 @@
       </c>
       <c r="AD17">
         <f t="shared" ref="AD17:AD44" si="19">(Z17-CA17*(CF17+CG17)/1000)</f>
-        <v>1.4871420444764718</v>
+        <v>1.4253388152946243</v>
       </c>
       <c r="AE17">
         <f t="shared" ref="AE17:AE44" si="20">(-L17*44100)</f>
-        <v>-206.97628731408616</v>
+        <v>-231.55165892322137</v>
       </c>
       <c r="AF17">
         <f t="shared" ref="AF17:AF44" si="21">2*29.3*T17*0.92*(CH17-Y17)</f>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="AH17">
         <f t="shared" ref="AH17:AH44" si="23">W17+AG17+AE17+AF17</f>
-        <v>55.583356208983531</v>
+        <v>31.007984599848328</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="BA17">
         <f t="shared" ref="BA17:BA44" si="30">N17</f>
-        <v>18.779369891439373</v>
+        <v>29.059964600554036</v>
       </c>
       <c r="BB17">
         <f t="shared" ref="BB17:BB44" si="31">AX17*AY17*AZ17</f>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="BC17">
         <f t="shared" ref="BC17:BC44" si="32">(BA17-AS17)/AZ17</f>
-        <v>1.1361821641436502E-2</v>
+        <v>1.7476437477526776E-2</v>
       </c>
       <c r="BD17">
         <f t="shared" ref="BD17:BD44" si="33">(AQ17-AW17)/AW17</f>
@@ -4441,10 +4441,10 @@
         <v>414.97699999999998</v>
       </c>
       <c r="BZ17">
-        <v>438.97166526323599</v>
+        <v>451.14073305264702</v>
       </c>
       <c r="CA17">
-        <v>29.878221494141201</v>
+        <v>30.500284298828198</v>
       </c>
       <c r="CB17">
         <v>24.607299999999999</v>
@@ -4960,22 +4960,22 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>5.9632057318148028</v>
+        <v>4.9547396460223725</v>
       </c>
       <c r="K18">
         <v>1629727234.5</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.7621103578915223E-3</v>
+        <v>4.1556516446915942E-3</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>3.7621103578915225</v>
+        <v>4.1556516446915941</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>35.910138937095837</v>
+        <v>29.403209791070541</v>
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>206.02136295338522</v>
+        <v>263.28496333930303</v>
       </c>
       <c r="Q18">
         <f t="shared" si="6"/>
-        <v>20.469190915846063</v>
+        <v>26.158598810372411</v>
       </c>
       <c r="R18">
         <f t="shared" si="7"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="8"/>
-        <v>0.29743482205237992</v>
+        <v>0.3428258548656884</v>
       </c>
       <c r="T18">
         <f t="shared" si="9"/>
@@ -5003,11 +5003,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="10"/>
-        <v>0.28174670239865157</v>
+        <v>0.32216264195847899</v>
       </c>
       <c r="V18">
         <f t="shared" si="11"/>
-        <v>0.17743221876784193</v>
+        <v>0.20310429121786711</v>
       </c>
       <c r="W18">
         <f t="shared" si="12"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="13"/>
-        <v>30.22071866396476</v>
+        <v>30.119410204007149</v>
       </c>
       <c r="Y18">
         <f t="shared" si="14"/>
@@ -5027,11 +5027,11 @@
       </c>
       <c r="AA18">
         <f t="shared" si="16"/>
-        <v>68.913368466715156</v>
+        <v>69.930537670285375</v>
       </c>
       <c r="AB18">
         <f t="shared" si="17"/>
-        <v>2.9615979142710125</v>
+        <v>3.0053114383488446</v>
       </c>
       <c r="AC18">
         <f t="shared" si="18"/>
@@ -5039,11 +5039,11 @@
       </c>
       <c r="AD18">
         <f t="shared" si="19"/>
-        <v>1.2785825147911054</v>
+        <v>1.2348689907132733</v>
       </c>
       <c r="AE18">
         <f t="shared" si="20"/>
-        <v>-165.90906678301613</v>
+        <v>-183.26423753089929</v>
       </c>
       <c r="AF18">
         <f t="shared" si="21"/>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="AH18">
         <f t="shared" si="23"/>
-        <v>52.026845944320286</v>
+        <v>34.671675196437121</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="BA18">
         <f t="shared" si="30"/>
-        <v>35.910138937095837</v>
+        <v>29.403209791070541</v>
       </c>
       <c r="BB18">
         <f t="shared" si="31"/>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="BC18">
         <f t="shared" si="32"/>
-        <v>3.9165129994734323E-2</v>
+        <v>3.213174265490585E-2</v>
       </c>
       <c r="BD18">
         <f t="shared" si="33"/>
@@ -5210,10 +5210,10 @@
         <v>414.99299999999999</v>
       </c>
       <c r="BZ18">
-        <v>458.38044224907298</v>
+        <v>451.03528844981503</v>
       </c>
       <c r="CA18">
-        <v>29.8083320110944</v>
+        <v>30.248306402218901</v>
       </c>
       <c r="CB18">
         <v>25.582100000000001</v>
@@ -5729,22 +5729,22 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>5.6624544843330664</v>
+        <v>4.4841781142594854</v>
       </c>
       <c r="K19">
         <v>1629727572.0999999</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>4.3134174623902961E-3</v>
+        <v>3.8969678586651198E-3</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>4.3134174623902961</v>
+        <v>3.89696785866512</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>32.847596537210777</v>
+        <v>26.413488014672019</v>
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
@@ -5752,11 +5752,11 @@
       </c>
       <c r="P19">
         <f t="shared" si="5"/>
-        <v>268.10035841108703</v>
+        <v>277.87071548722867</v>
       </c>
       <c r="Q19">
         <f t="shared" si="6"/>
-        <v>26.635679641689883</v>
+        <v>27.606361302122401</v>
       </c>
       <c r="R19">
         <f t="shared" si="7"/>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="8"/>
-        <v>0.39769090155951442</v>
+        <v>0.34174217037886406</v>
       </c>
       <c r="T19">
         <f t="shared" si="9"/>
@@ -5772,11 +5772,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="10"/>
-        <v>0.37017452052997674</v>
+        <v>0.32120904163156894</v>
       </c>
       <c r="V19">
         <f t="shared" si="11"/>
-        <v>0.23367246544208248</v>
+        <v>0.20249758281712013</v>
       </c>
       <c r="W19">
         <f t="shared" si="12"/>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="13"/>
-        <v>29.629202323366091</v>
+        <v>29.736400675284983</v>
       </c>
       <c r="Y19">
         <f t="shared" si="14"/>
@@ -5796,11 +5796,11 @@
       </c>
       <c r="AA19">
         <f t="shared" si="16"/>
-        <v>71.535910075755211</v>
+        <v>70.449851080224718</v>
       </c>
       <c r="AB19">
         <f t="shared" si="17"/>
-        <v>3.0443744849443917</v>
+        <v>2.9981547570953162</v>
       </c>
       <c r="AC19">
         <f t="shared" si="18"/>
@@ -5808,11 +5808,11 @@
       </c>
       <c r="AD19">
         <f t="shared" si="19"/>
-        <v>1.1156864389399104</v>
+        <v>1.1619061667889858</v>
       </c>
       <c r="AE19">
         <f t="shared" si="20"/>
-        <v>-190.22171009141206</v>
+        <v>-171.85628256713179</v>
       </c>
       <c r="AF19">
         <f t="shared" si="21"/>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="AH19">
         <f t="shared" si="23"/>
-        <v>7.4779067572882028</v>
+        <v>25.843334281568481</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="BA19">
         <f t="shared" si="30"/>
-        <v>32.847596537210777</v>
+        <v>26.413488014672019</v>
       </c>
       <c r="BB19">
         <f t="shared" si="31"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="BC19">
         <f t="shared" si="32"/>
-        <v>4.9266541162070729E-2</v>
+        <v>3.9710422334051622E-2</v>
       </c>
       <c r="BD19">
         <f t="shared" si="33"/>
@@ -5979,10 +5979,10 @@
         <v>414.976</v>
       </c>
       <c r="BZ19">
-        <v>455.073464752772</v>
+        <v>447.42509295055402</v>
       </c>
       <c r="CA19">
-        <v>30.643028506532101</v>
+        <v>30.177805701306401</v>
       </c>
       <c r="CB19">
         <v>25.802700000000002</v>
@@ -6498,22 +6498,22 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>3.2734975013315504</v>
+        <v>3.6518663254877111</v>
       </c>
       <c r="K20">
         <v>1629727873.0999999</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>4.8758956079129482E-3</v>
+        <v>3.8198776059083944E-3</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>4.8758956079129483</v>
+        <v>3.8198776059083945</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>18.495679527903121</v>
+        <v>21.44189800942949</v>
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
@@ -6521,11 +6521,11 @@
       </c>
       <c r="P20">
         <f t="shared" si="5"/>
-        <v>345.38157609666428</v>
+        <v>303.47825988287076</v>
       </c>
       <c r="Q20">
         <f t="shared" si="6"/>
-        <v>34.314572428709219</v>
+        <v>30.151367212404082</v>
       </c>
       <c r="R20">
         <f t="shared" si="7"/>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="S20">
         <f t="shared" si="8"/>
-        <v>0.50541643864431618</v>
+        <v>0.34540141806199576</v>
       </c>
       <c r="T20">
         <f t="shared" si="9"/>
@@ -6541,11 +6541,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="10"/>
-        <v>0.46183707560990866</v>
+        <v>0.3244350284807429</v>
       </c>
       <c r="V20">
         <f t="shared" si="11"/>
-        <v>0.29224982753430734</v>
+        <v>0.20454949697164021</v>
       </c>
       <c r="W20">
         <f t="shared" si="12"/>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="X20">
         <f t="shared" si="13"/>
-        <v>29.239332416239687</v>
+        <v>29.511254909004897</v>
       </c>
       <c r="Y20">
         <f t="shared" si="14"/>
@@ -6565,11 +6565,11 @@
       </c>
       <c r="AA20">
         <f t="shared" si="16"/>
-        <v>73.451788725744038</v>
+        <v>70.682564892660409</v>
       </c>
       <c r="AB20">
         <f t="shared" si="17"/>
-        <v>3.1070853132576413</v>
+        <v>2.9899443307143323</v>
       </c>
       <c r="AC20">
         <f t="shared" si="18"/>
@@ -6577,11 +6577,11 @@
       </c>
       <c r="AD20">
         <f t="shared" si="19"/>
-        <v>1.0107872884378488</v>
+        <v>1.1279282709811578</v>
       </c>
       <c r="AE20">
         <f t="shared" si="20"/>
-        <v>-215.026996308961</v>
+        <v>-168.45660242056019</v>
       </c>
       <c r="AF20">
         <f t="shared" si="21"/>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="AH20">
         <f t="shared" si="23"/>
-        <v>-29.01939544369273</v>
+        <v>17.550998444708085</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="BA20">
         <f t="shared" si="30"/>
-        <v>18.495679527903121</v>
+        <v>21.44189800942949</v>
       </c>
       <c r="BB20">
         <f t="shared" si="31"/>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="BC20">
         <f t="shared" si="32"/>
-        <v>3.4391119934276737E-2</v>
+        <v>3.9775208504668633E-2</v>
       </c>
       <c r="BD20">
         <f t="shared" si="33"/>
@@ -6748,10 +6748,10 @@
         <v>415.012</v>
       </c>
       <c r="BZ20">
-        <v>438.76586259592199</v>
+        <v>441.66917251918397</v>
       </c>
       <c r="CA20">
-        <v>31.273303048995299</v>
+        <v>30.0942606097991</v>
       </c>
       <c r="CB20">
         <v>25.805299999999999</v>
@@ -7267,22 +7267,22 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>4.7725188379058769</v>
+        <v>3.4377767353824438</v>
       </c>
       <c r="K21">
         <v>1629728348.0999999</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.2673143259537318E-3</v>
+        <v>3.0993429859348465E-3</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>3.2673143259537318</v>
+        <v>3.0993429859348467</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
-        <v>27.989943884376011</v>
+        <v>20.290011576902675</v>
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
@@ -7290,11 +7290,11 @@
       </c>
       <c r="P21">
         <f t="shared" si="5"/>
-        <v>253.03348298158696</v>
+        <v>287.30471208148515</v>
       </c>
       <c r="Q21">
         <f t="shared" si="6"/>
-        <v>25.135643019341643</v>
+        <v>28.540051678379861</v>
       </c>
       <c r="R21">
         <f t="shared" si="7"/>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="8"/>
-        <v>0.30106953079526377</v>
+        <v>0.27979095427875411</v>
       </c>
       <c r="T21">
         <f t="shared" si="9"/>
@@ -7310,11 +7310,11 @@
       </c>
       <c r="U21">
         <f t="shared" si="10"/>
-        <v>0.2850062561029702</v>
+        <v>0.26586162039814371</v>
       </c>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>0.17950067841907308</v>
+        <v>0.16735720143292931</v>
       </c>
       <c r="W21">
         <f t="shared" si="12"/>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="X21">
         <f t="shared" si="13"/>
-        <v>29.305831446030997</v>
+        <v>29.349087754588108</v>
       </c>
       <c r="Y21">
         <f t="shared" si="14"/>
@@ -7334,11 +7334,11 @@
       </c>
       <c r="AA21">
         <f t="shared" si="16"/>
-        <v>70.768804031192559</v>
+        <v>70.322063519066361</v>
       </c>
       <c r="AB21">
         <f t="shared" si="17"/>
-        <v>2.958031082641615</v>
+        <v>2.9393579915976846</v>
       </c>
       <c r="AC21">
         <f t="shared" si="18"/>
@@ -7346,11 +7346,11 @@
       </c>
       <c r="AD21">
         <f t="shared" si="19"/>
-        <v>1.0985947642561293</v>
+        <v>1.1172678553000597</v>
       </c>
       <c r="AE21">
         <f t="shared" si="20"/>
-        <v>-144.08856177455957</v>
+        <v>-136.68102567972673</v>
       </c>
       <c r="AF21">
         <f t="shared" si="21"/>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="AH21">
         <f t="shared" si="23"/>
-        <v>26.806835429776115</v>
+        <v>34.21437152460895</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="BA21">
         <f t="shared" si="30"/>
-        <v>27.989943884376011</v>
+        <v>20.290011576902675</v>
       </c>
       <c r="BB21">
         <f t="shared" si="31"/>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="BC21">
         <f t="shared" si="32"/>
-        <v>6.7228600407387734E-2</v>
+        <v>4.8945520749865669E-2</v>
       </c>
       <c r="BD21">
         <f t="shared" si="33"/>
@@ -7517,10 +7517,10 @@
         <v>415.04599999999999</v>
       </c>
       <c r="BZ21">
-        <v>449.01654085340499</v>
+        <v>440.02250817068102</v>
       </c>
       <c r="CA21">
-        <v>29.777670976336399</v>
+        <v>29.589694195267299</v>
       </c>
       <c r="CB21">
         <v>26.1081</v>
@@ -8036,22 +8036,22 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>4.2521074234938414</v>
+        <v>2.6311057321500111</v>
       </c>
       <c r="K22">
         <v>1629728899.0999999</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>2.3462177039804844E-3</v>
+        <v>2.4860630531570341E-3</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>2.3462177039804843</v>
+        <v>2.486063053157034</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>25.493866757017248</v>
+        <v>15.690328956920201</v>
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
@@ -8059,11 +8059,11 @@
       </c>
       <c r="P22">
         <f t="shared" si="5"/>
-        <v>196.12823563449527</v>
+        <v>286.2511112204902</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>19.483112566173947</v>
+        <v>28.435796631009346</v>
       </c>
       <c r="R22">
         <f t="shared" si="7"/>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="S22">
         <f t="shared" si="8"/>
-        <v>0.19766118933708193</v>
+        <v>0.21280481457842479</v>
       </c>
       <c r="T22">
         <f t="shared" si="9"/>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="U22">
         <f t="shared" si="10"/>
-        <v>0.19060093791540089</v>
+        <v>0.20464531269700637</v>
       </c>
       <c r="V22">
         <f t="shared" si="11"/>
-        <v>0.11973891165649667</v>
+        <v>0.12861035204426738</v>
       </c>
       <c r="W22">
         <f t="shared" si="12"/>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="X22">
         <f t="shared" si="13"/>
-        <v>29.349097475050776</v>
+        <v>29.313095992218557</v>
       </c>
       <c r="Y22">
         <f t="shared" si="14"/>
@@ -8103,11 +8103,11 @@
       </c>
       <c r="AA22">
         <f t="shared" si="16"/>
-        <v>69.22228222880517</v>
+        <v>69.595899028053026</v>
       </c>
       <c r="AB22">
         <f t="shared" si="17"/>
-        <v>2.8846536742061746</v>
+        <v>2.9002231561416747</v>
       </c>
       <c r="AC22">
         <f t="shared" si="18"/>
@@ -8115,11 +8115,11 @@
       </c>
       <c r="AD22">
         <f t="shared" si="19"/>
-        <v>1.1800452595620081</v>
+        <v>1.164475777626508</v>
       </c>
       <c r="AE22">
         <f t="shared" si="20"/>
-        <v>-103.46820074553936</v>
+        <v>-109.63538064422521</v>
       </c>
       <c r="AF22">
         <f t="shared" si="21"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="AH22">
         <f t="shared" si="23"/>
-        <v>28.339270082287051</v>
+        <v>22.172090183601206</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="BA22">
         <f t="shared" si="30"/>
-        <v>25.493866757017248</v>
+        <v>15.690328956920201</v>
       </c>
       <c r="BB22">
         <f t="shared" si="31"/>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="BC22">
         <f t="shared" si="32"/>
-        <v>8.7518999497078642E-2</v>
+        <v>5.4285627934522095E-2</v>
       </c>
       <c r="BD22">
         <f t="shared" si="33"/>
@@ -8286,10 +8286,10 @@
         <v>415.02800000000002</v>
       </c>
       <c r="BZ22">
-        <v>445.66658828296198</v>
+        <v>434.38531765659201</v>
       </c>
       <c r="CA22">
-        <v>29.038585781251498</v>
+        <v>29.195317156250301</v>
       </c>
       <c r="CB22">
         <v>26.401499999999999</v>
@@ -8805,22 +8805,22 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>0.42491368511531385</v>
+        <v>1.0999776875523686</v>
       </c>
       <c r="K23">
         <v>1629729392</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>1.7700835814943854E-3</v>
+        <v>1.956425380822688E-3</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>1.7700835814943854</v>
+        <v>1.9564253808226881</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>2.5326147116092335</v>
+        <v>6.50942405742407</v>
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
@@ -8828,11 +8828,11 @@
       </c>
       <c r="P23">
         <f t="shared" si="5"/>
-        <v>379.80659391096503</v>
+        <v>344.90462194135984</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>37.726610558495402</v>
+        <v>34.259758941565629</v>
       </c>
       <c r="R23">
         <f t="shared" si="7"/>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="S23">
         <f t="shared" si="8"/>
-        <v>0.15052476510006207</v>
+        <v>0.16998691666819751</v>
       </c>
       <c r="T23">
         <f t="shared" si="9"/>
@@ -8848,11 +8848,11 @@
       </c>
       <c r="U23">
         <f t="shared" si="10"/>
-        <v>0.14638831766130603</v>
+        <v>0.16473177502542796</v>
       </c>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>9.1854873916293725E-2</v>
+        <v>0.10341597984763272</v>
       </c>
       <c r="W23">
         <f t="shared" si="12"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="X23">
         <f t="shared" si="13"/>
-        <v>29.274996596277848</v>
+        <v>29.226976607320957</v>
       </c>
       <c r="Y23">
         <f t="shared" si="14"/>
@@ -8872,11 +8872,11 @@
       </c>
       <c r="AA23">
         <f t="shared" si="16"/>
-        <v>69.633529459026121</v>
+        <v>70.133922061506084</v>
       </c>
       <c r="AB23">
         <f t="shared" si="17"/>
-        <v>2.8888623043844643</v>
+        <v>2.9096219203040885</v>
       </c>
       <c r="AC23">
         <f t="shared" si="18"/>
@@ -8884,11 +8884,11 @@
       </c>
       <c r="AD23">
         <f t="shared" si="19"/>
-        <v>1.159142697929703</v>
+        <v>1.1383830820100789</v>
       </c>
       <c r="AE23">
         <f t="shared" si="20"/>
-        <v>-78.060685943902399</v>
+        <v>-86.278359294280534</v>
       </c>
       <c r="AF23">
         <f t="shared" si="21"/>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="AH23">
         <f t="shared" si="23"/>
-        <v>27.814496951364212</v>
+        <v>19.596823600986077</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="BA23">
         <f t="shared" si="30"/>
-        <v>2.5326147116092335</v>
+        <v>6.50942405742407</v>
       </c>
       <c r="BB23">
         <f t="shared" si="31"/>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="BC23">
         <f t="shared" si="32"/>
-        <v>1.6930224106289471E-2</v>
+        <v>4.0504179510961455E-2</v>
       </c>
       <c r="BD23">
         <f t="shared" si="33"/>
@@ -9055,10 +9055,10 @@
         <v>415.03699999999998</v>
       </c>
       <c r="BZ23">
-        <v>418.81975888857897</v>
+        <v>423.51355177771597</v>
       </c>
       <c r="CA23">
-        <v>29.083157375211702</v>
+        <v>29.292151475042299</v>
       </c>
       <c r="CB23">
         <v>27.093399999999999</v>
@@ -9574,22 +9574,22 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>9.6723760844332745</v>
+        <v>7.6600432550858635</v>
       </c>
       <c r="K24">
         <v>1629734931.0999999</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>8.7164455500434584E-3</v>
+        <v>7.5530097498024088E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>8.7164455500434581</v>
+        <v>7.5530097498024089</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>46.106654358579561</v>
+        <v>37.751469233560428</v>
       </c>
       <c r="O24">
         <f t="shared" si="4"/>
@@ -9597,11 +9597,11 @@
       </c>
       <c r="P24">
         <f t="shared" si="5"/>
-        <v>272.58395088320015</v>
+        <v>266.12331430249992</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>27.077657754519009</v>
+        <v>26.435877834455091</v>
       </c>
       <c r="R24">
         <f t="shared" si="7"/>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="8"/>
-        <v>0.91543675296393057</v>
+        <v>0.68241476432493675</v>
       </c>
       <c r="T24">
         <f t="shared" si="9"/>
@@ -9617,11 +9617,11 @@
       </c>
       <c r="U24">
         <f t="shared" si="10"/>
-        <v>0.78241377821513736</v>
+        <v>0.60546210436278214</v>
       </c>
       <c r="V24">
         <f t="shared" si="11"/>
-        <v>0.49934120570768614</v>
+        <v>0.38460211296977431</v>
       </c>
       <c r="W24">
         <f t="shared" si="12"/>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="X24">
         <f t="shared" si="13"/>
-        <v>32.458979431756632</v>
+        <v>32.757898878245157</v>
       </c>
       <c r="Y24">
         <f t="shared" si="14"/>
@@ -9641,11 +9641,11 @@
       </c>
       <c r="AA24">
         <f t="shared" si="16"/>
-        <v>77.731184471647325</v>
+        <v>75.183594308172815</v>
       </c>
       <c r="AB24">
         <f t="shared" si="17"/>
-        <v>3.8886785121204204</v>
+        <v>3.7612295456119247</v>
       </c>
       <c r="AC24">
         <f t="shared" si="18"/>
@@ -9653,11 +9653,11 @@
       </c>
       <c r="AD24">
         <f t="shared" si="19"/>
-        <v>1.0574469386174599</v>
+        <v>1.1848959051259556</v>
       </c>
       <c r="AE24">
         <f t="shared" si="20"/>
-        <v>-384.39524875691654</v>
+        <v>-333.08772996628625</v>
       </c>
       <c r="AF24">
         <f t="shared" si="21"/>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="AH24">
         <f t="shared" si="23"/>
-        <v>-28.189827646081767</v>
+        <v>23.11769114454853</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="BA24">
         <f t="shared" si="30"/>
-        <v>46.106654358579561</v>
+        <v>37.751469233560428</v>
       </c>
       <c r="BB24">
         <f t="shared" si="31"/>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="BC24">
         <f t="shared" si="32"/>
-        <v>2.7616582796405886E-2</v>
+        <v>2.2646924343607162E-2</v>
       </c>
       <c r="BD24">
         <f t="shared" si="33"/>
@@ -9824,10 +9824,10 @@
         <v>370.53199999999998</v>
       </c>
       <c r="BZ24">
-        <v>427.65015817717301</v>
+        <v>417.478031635435</v>
       </c>
       <c r="CA24">
-        <v>39.146345749623997</v>
+        <v>37.863349149924801</v>
       </c>
       <c r="CB24">
         <v>29.450099999999999</v>
@@ -10343,22 +10343,22 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>3.5232914890855955</v>
+        <v>5.6136060575804034</v>
       </c>
       <c r="K25">
         <v>1629735255.0999999</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>4.1240844740533938E-3</v>
+        <v>5.3211634189413055E-3</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>4.1240844740533937</v>
+        <v>5.321163418941306</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>18.477162882458753</v>
+        <v>28.380464130602892</v>
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
@@ -10366,11 +10366,11 @@
       </c>
       <c r="P25">
         <f t="shared" si="5"/>
-        <v>274.26072427630095</v>
+        <v>268.86599920702048</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>27.248395085754211</v>
+        <v>26.712417502909773</v>
       </c>
       <c r="R25">
         <f t="shared" si="7"/>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="8"/>
-        <v>0.32525169031780787</v>
+        <v>0.48026804957471492</v>
       </c>
       <c r="T25">
         <f t="shared" si="9"/>
@@ -10386,11 +10386,11 @@
       </c>
       <c r="U25">
         <f t="shared" si="10"/>
-        <v>0.30660114392436916</v>
+        <v>0.44076054352154431</v>
       </c>
       <c r="V25">
         <f t="shared" si="11"/>
-        <v>0.19321221354387966</v>
+        <v>0.27875360167931795</v>
       </c>
       <c r="W25">
         <f t="shared" si="12"/>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="X25">
         <f t="shared" si="13"/>
-        <v>32.514631428763721</v>
+        <v>32.207152045610677</v>
       </c>
       <c r="Y25">
         <f t="shared" si="14"/>
@@ -10410,11 +10410,11 @@
       </c>
       <c r="AA25">
         <f t="shared" si="16"/>
-        <v>71.857389388441945</v>
+        <v>74.538489244210894</v>
       </c>
       <c r="AB25">
         <f t="shared" si="17"/>
-        <v>3.5371307601863564</v>
+        <v>3.6691060636545472</v>
       </c>
       <c r="AC25">
         <f t="shared" si="18"/>
@@ -10422,11 +10422,11 @@
       </c>
       <c r="AD25">
         <f t="shared" si="19"/>
-        <v>1.2801956568224653</v>
+        <v>1.1482203533542745</v>
       </c>
       <c r="AE25">
         <f t="shared" si="20"/>
-        <v>-181.87212530575468</v>
+        <v>-234.66330677531158</v>
       </c>
       <c r="AF25">
         <f t="shared" si="21"/>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="AH25">
         <f t="shared" si="23"/>
-        <v>61.616179106700343</v>
+        <v>8.82499763714344</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="BA25">
         <f t="shared" si="30"/>
-        <v>18.477162882458753</v>
+        <v>28.380464130602892</v>
       </c>
       <c r="BB25">
         <f t="shared" si="31"/>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="BC25">
         <f t="shared" si="32"/>
-        <v>2.0318924669803805E-2</v>
+        <v>3.102201430298325E-2</v>
       </c>
       <c r="BD25">
         <f t="shared" si="33"/>
@@ -10593,10 +10593,10 @@
         <v>376.84100000000001</v>
       </c>
       <c r="BZ25">
-        <v>400.031618216097</v>
+        <v>412.01912364321902</v>
       </c>
       <c r="CA25">
-        <v>35.601951641396703</v>
+        <v>36.930310328279297</v>
       </c>
       <c r="CB25">
         <v>30.997399999999999</v>
@@ -11112,22 +11112,22 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>6.5999891965610926</v>
+        <v>5.6053672968936601</v>
       </c>
       <c r="K26">
         <v>1629735770.5</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>5.1768977708764154E-3</v>
+        <v>5.0572917976668651E-3</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>5.1768977708764154</v>
+        <v>5.0572917976668652</v>
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>33.405521159701664</v>
+        <v>28.473481389215802</v>
       </c>
       <c r="O26">
         <f t="shared" si="4"/>
@@ -11135,11 +11135,11 @@
       </c>
       <c r="P26">
         <f t="shared" si="5"/>
-        <v>258.3326808043862</v>
+        <v>271.79362485986672</v>
       </c>
       <c r="Q26">
         <f t="shared" si="6"/>
-        <v>25.669545093990589</v>
+        <v>27.007108383946488</v>
       </c>
       <c r="R26">
         <f t="shared" si="7"/>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="S26">
         <f t="shared" si="8"/>
-        <v>0.49255785844863731</v>
+        <v>0.47397255461784377</v>
       </c>
       <c r="T26">
         <f t="shared" si="9"/>
@@ -11155,11 +11155,11 @@
       </c>
       <c r="U26">
         <f t="shared" si="10"/>
-        <v>0.45103910884487369</v>
+        <v>0.43539654530484428</v>
       </c>
       <c r="V26">
         <f t="shared" si="11"/>
-        <v>0.28533752548228331</v>
+        <v>0.27532663081306141</v>
       </c>
       <c r="W26">
         <f t="shared" si="12"/>
@@ -11167,7 +11167,7 @@
       </c>
       <c r="X26">
         <f t="shared" si="13"/>
-        <v>31.7889881840904</v>
+        <v>31.819756724360296</v>
       </c>
       <c r="Y26">
         <f t="shared" si="14"/>
@@ -11179,11 +11179,11 @@
       </c>
       <c r="AA26">
         <f t="shared" si="16"/>
-        <v>75.315953599842913</v>
+        <v>75.045647818940239</v>
       </c>
       <c r="AB26">
         <f t="shared" si="17"/>
-        <v>3.670810209924626</v>
+        <v>3.6576358269033213</v>
       </c>
       <c r="AC26">
         <f t="shared" si="18"/>
@@ -11191,11 +11191,11 @@
       </c>
       <c r="AD26">
         <f t="shared" si="19"/>
-        <v>1.0920972663716459</v>
+        <v>1.1052716493929506</v>
       </c>
       <c r="AE26">
         <f t="shared" si="20"/>
-        <v>-228.30119169564992</v>
+        <v>-223.02656827710874</v>
       </c>
       <c r="AF26">
         <f t="shared" si="21"/>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="AH26">
         <f t="shared" si="23"/>
-        <v>-28.452109446760716</v>
+        <v>-23.177486028219533</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="BA26">
         <f t="shared" si="30"/>
-        <v>33.405521159701664</v>
+        <v>28.473481389215802</v>
       </c>
       <c r="BB26">
         <f t="shared" si="31"/>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="BC26">
         <f t="shared" si="32"/>
-        <v>5.0088976608990796E-2</v>
+        <v>4.27646805565359E-2</v>
       </c>
       <c r="BD26">
         <f t="shared" si="33"/>
@@ -11362,10 +11362,10 @@
         <v>381.20800000000003</v>
       </c>
       <c r="BZ26">
-        <v>422.16868523690698</v>
+        <v>416.40573704738102</v>
       </c>
       <c r="CA26">
-        <v>36.942230132311202</v>
+        <v>36.809646026462197</v>
       </c>
       <c r="CB26">
         <v>31.17</v>
@@ -11881,22 +11881,22 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>6.0119567013139932</v>
+        <v>4.9461321817380082</v>
       </c>
       <c r="K27">
         <v>1629736144</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>6.287285698807505E-3</v>
+        <v>5.0013813508338525E-3</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>6.287285698807505</v>
+        <v>5.001381350833852</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>29.510090236334655</v>
+        <v>25.20798912493774</v>
       </c>
       <c r="O27">
         <f t="shared" si="4"/>
@@ -11904,11 +11904,11 @@
       </c>
       <c r="P27">
         <f t="shared" si="5"/>
-        <v>307.69755996399238</v>
+        <v>289.50726652512958</v>
       </c>
       <c r="Q27">
         <f t="shared" si="6"/>
-        <v>30.578419499594148</v>
+        <v>28.770701480447833</v>
       </c>
       <c r="R27">
         <f t="shared" si="7"/>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="8"/>
-        <v>0.73241281654186696</v>
+        <v>0.48557982811902639</v>
       </c>
       <c r="T27">
         <f t="shared" si="9"/>
@@ -11924,11 +11924,11 @@
       </c>
       <c r="U27">
         <f t="shared" si="10"/>
-        <v>0.64453864238020186</v>
+        <v>0.44521085694556478</v>
       </c>
       <c r="V27">
         <f t="shared" si="11"/>
-        <v>0.40984989311467723</v>
+        <v>0.28160357171534056</v>
       </c>
       <c r="W27">
         <f t="shared" si="12"/>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="X27">
         <f t="shared" si="13"/>
-        <v>31.420442409699035</v>
+        <v>31.750948847784173</v>
       </c>
       <c r="Y27">
         <f t="shared" si="14"/>
@@ -11948,11 +11948,11 @@
       </c>
       <c r="AA27">
         <f t="shared" si="16"/>
-        <v>78.436950443242793</v>
+        <v>75.544510125307312</v>
       </c>
       <c r="AB27">
         <f t="shared" si="17"/>
-        <v>3.8350040521119686</v>
+        <v>3.693584475278711</v>
       </c>
       <c r="AC27">
         <f t="shared" si="18"/>
@@ -11960,11 +11960,11 @@
       </c>
       <c r="AD27">
         <f t="shared" si="19"/>
-        <v>0.927471965375954</v>
+        <v>1.0688915422092116</v>
       </c>
       <c r="AE27">
         <f t="shared" si="20"/>
-        <v>-277.26929931741097</v>
+        <v>-220.5609175717729</v>
       </c>
       <c r="AF27">
         <f t="shared" si="21"/>
@@ -11976,7 +11976,7 @@
       </c>
       <c r="AH27">
         <f t="shared" si="23"/>
-        <v>-91.440864122261132</v>
+        <v>-34.732482376623068</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="BA27">
         <f t="shared" si="30"/>
-        <v>29.510090236334655</v>
+        <v>25.20798912493774</v>
       </c>
       <c r="BB27">
         <f t="shared" si="31"/>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="BC27">
         <f t="shared" si="32"/>
-        <v>5.4510728390160454E-2</v>
+        <v>4.6650084979554779E-2</v>
       </c>
       <c r="BD27">
         <f t="shared" si="33"/>
@@ -12131,10 +12131,10 @@
         <v>385.01299999999998</v>
       </c>
       <c r="BZ27">
-        <v>421.98033723800899</v>
+        <v>416.42646744760202</v>
       </c>
       <c r="CA27">
-        <v>38.590005912586101</v>
+        <v>37.166961182517198</v>
       </c>
       <c r="CB27">
         <v>31.591899999999999</v>
@@ -12650,22 +12650,22 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>0.79539323474297641</v>
+        <v>3.1181620305191671</v>
       </c>
       <c r="K28">
         <v>1629736750</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>4.8527807734439019E-3</v>
+        <v>4.0472007383609088E-3</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>4.8527807734439019</v>
+        <v>4.0472007383609085</v>
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>4.0371016935119917</v>
+        <v>16.206260616493253</v>
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
@@ -12673,11 +12673,11 @@
       </c>
       <c r="P28">
         <f t="shared" si="5"/>
-        <v>370.25546299511274</v>
+        <v>309.96329799562108</v>
       </c>
       <c r="Q28">
         <f t="shared" si="6"/>
-        <v>36.796522894572789</v>
+        <v>30.804600420774101</v>
       </c>
       <c r="R28">
         <f t="shared" si="7"/>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="S28">
         <f t="shared" si="8"/>
-        <v>0.49018546643776278</v>
+        <v>0.36869543721724751</v>
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
@@ -12693,11 +12693,11 @@
       </c>
       <c r="U28">
         <f t="shared" si="10"/>
-        <v>0.44906421026831239</v>
+        <v>0.34490155794369132</v>
       </c>
       <c r="V28">
         <f t="shared" si="11"/>
-        <v>0.28407168757670742</v>
+        <v>0.21757317123842662</v>
       </c>
       <c r="W28">
         <f t="shared" si="12"/>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="X28">
         <f t="shared" si="13"/>
-        <v>31.751287239250331</v>
+        <v>31.958414845631275</v>
       </c>
       <c r="Y28">
         <f t="shared" si="14"/>
@@ -12717,11 +12717,11 @@
       </c>
       <c r="AA28">
         <f t="shared" si="16"/>
-        <v>77.029047371779569</v>
+        <v>75.224304962080808</v>
       </c>
       <c r="AB28">
         <f t="shared" si="17"/>
-        <v>3.7879200117906344</v>
+        <v>3.6991714146954333</v>
       </c>
       <c r="AC28">
         <f t="shared" si="18"/>
@@ -12729,11 +12729,11 @@
       </c>
       <c r="AD28">
         <f t="shared" si="19"/>
-        <v>1.0274730392398053</v>
+        <v>1.1162216363350064</v>
       </c>
       <c r="AE28">
         <f t="shared" si="20"/>
-        <v>-214.00763210887607</v>
+        <v>-178.48155256171609</v>
       </c>
       <c r="AF28">
         <f t="shared" si="21"/>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="AH28">
         <f t="shared" si="23"/>
-        <v>-68.154555483413816</v>
+        <v>-32.628475936253842</v>
       </c>
       <c r="AI28">
         <v>1</v>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="BA28">
         <f t="shared" si="30"/>
-        <v>4.0371016935119917</v>
+        <v>16.206260616493253</v>
       </c>
       <c r="BB28">
         <f t="shared" si="31"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="BC28">
         <f t="shared" si="32"/>
-        <v>1.0351007825381625E-2</v>
+        <v>3.9238094235480546E-2</v>
       </c>
       <c r="BD28">
         <f t="shared" si="33"/>
@@ -12900,10 +12900,10 @@
         <v>390.96899999999999</v>
       </c>
       <c r="BZ28">
-        <v>397.84016990393297</v>
+        <v>411.56563398078703</v>
       </c>
       <c r="CA28">
-        <v>38.114962160211398</v>
+        <v>37.221952432042301</v>
       </c>
       <c r="CB28">
         <v>32.710299999999997</v>
@@ -13419,22 +13419,22 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>-0.73782558684679267</v>
+        <v>2.0127607412950552</v>
       </c>
       <c r="K29">
         <v>1629737132</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>4.7942055572331235E-3</v>
+        <v>3.8262783003463951E-3</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>4.7942055572331235</v>
+        <v>3.8262783003463952</v>
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>-3.7712352264245905</v>
+        <v>10.583422937923299</v>
       </c>
       <c r="O29">
         <f t="shared" si="4"/>
@@ -13442,11 +13442,11 @@
       </c>
       <c r="P29">
         <f t="shared" si="5"/>
-        <v>403.31707424881654</v>
+        <v>339.65016114693958</v>
       </c>
       <c r="Q29">
         <f t="shared" si="6"/>
-        <v>40.083187517231984</v>
+        <v>33.755727115861845</v>
       </c>
       <c r="R29">
         <f t="shared" si="7"/>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="8"/>
-        <v>0.50357535513644536</v>
+        <v>0.35380954438860635</v>
       </c>
       <c r="T29">
         <f t="shared" si="9"/>
@@ -13462,11 +13462,11 @@
       </c>
       <c r="U29">
         <f t="shared" si="10"/>
-        <v>0.46033994577499904</v>
+        <v>0.33186647647450757</v>
       </c>
       <c r="V29">
         <f t="shared" si="11"/>
-        <v>0.29128702857626532</v>
+        <v>0.2092745392633201</v>
       </c>
       <c r="W29">
         <f t="shared" si="12"/>
@@ -13474,7 +13474,7 @@
       </c>
       <c r="X29">
         <f t="shared" si="13"/>
-        <v>31.61739143146432</v>
+        <v>31.865928313483089</v>
       </c>
       <c r="Y29">
         <f t="shared" si="14"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="AA29">
         <f t="shared" si="16"/>
-        <v>77.662695660071932</v>
+        <v>75.493293380402037</v>
       </c>
       <c r="AB29">
         <f t="shared" si="17"/>
-        <v>3.817163691799518</v>
+        <v>3.7105363909508755</v>
       </c>
       <c r="AC29">
         <f t="shared" si="18"/>
@@ -13498,11 +13498,11 @@
       </c>
       <c r="AD29">
         <f t="shared" si="19"/>
-        <v>0.99012203308212499</v>
+        <v>1.0967493339307675</v>
       </c>
       <c r="AE29">
         <f t="shared" si="20"/>
-        <v>-211.42446507398074</v>
+        <v>-168.73887304527602</v>
       </c>
       <c r="AF29">
         <f t="shared" si="21"/>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="AH29">
         <f t="shared" si="23"/>
-        <v>-86.124967148514415</v>
+        <v>-43.439375119809696</v>
       </c>
       <c r="AI29">
         <v>2</v>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="BA29">
         <f t="shared" si="30"/>
-        <v>-3.7712352264245905</v>
+        <v>10.583422937923299</v>
       </c>
       <c r="BB29">
         <f t="shared" si="31"/>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="BC29">
         <f t="shared" si="32"/>
-        <v>-1.1681265592181522E-2</v>
+        <v>3.6952740461327738E-2</v>
       </c>
       <c r="BD29">
         <f t="shared" si="33"/>
@@ -13669,10 +13669,10 @@
         <v>396.95600000000002</v>
       </c>
       <c r="BZ29">
-        <v>394.79303235226701</v>
+        <v>410.96820647045303</v>
       </c>
       <c r="CA29">
-        <v>38.408305014254204</v>
+        <v>37.335421002850801</v>
       </c>
       <c r="CB29">
         <v>33.070700000000002</v>
@@ -14188,22 +14188,22 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>1.0761554404563611</v>
+        <v>1.3544349201619494</v>
       </c>
       <c r="K30">
         <v>1629737576.0999999</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>1.9379520240661529E-3</v>
+        <v>2.7856252167189522E-3</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>1.937952024066153</v>
+        <v>2.7856252167189521</v>
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>6.0134745239630183</v>
+        <v>7.3745604246289362</v>
       </c>
       <c r="O30">
         <f t="shared" si="4"/>
@@ -14211,11 +14211,11 @@
       </c>
       <c r="P30">
         <f t="shared" si="5"/>
-        <v>330.75031192368647</v>
+        <v>345.14072748215887</v>
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>32.871745700254358</v>
+        <v>34.301942630403381</v>
       </c>
       <c r="R30">
         <f t="shared" si="7"/>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="S30">
         <f t="shared" si="8"/>
-        <v>0.14912255591955284</v>
+        <v>0.23490376105801156</v>
       </c>
       <c r="T30">
         <f t="shared" si="9"/>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="U30">
         <f t="shared" si="10"/>
-        <v>0.14506494081023269</v>
+        <v>0.22500203939923538</v>
       </c>
       <c r="V30">
         <f t="shared" si="11"/>
-        <v>9.1020952435120969E-2</v>
+        <v>0.14148112387389677</v>
       </c>
       <c r="W30">
         <f t="shared" si="12"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="X30">
         <f t="shared" si="13"/>
-        <v>32.234819505798463</v>
+        <v>32.01699905051084</v>
       </c>
       <c r="Y30">
         <f t="shared" si="14"/>
@@ -14255,11 +14255,11 @@
       </c>
       <c r="AA30">
         <f t="shared" si="16"/>
-        <v>72.414374189769617</v>
+        <v>74.318554753916615</v>
       </c>
       <c r="AB30">
         <f t="shared" si="17"/>
-        <v>3.5649699984370926</v>
+        <v>3.6587130799557079</v>
       </c>
       <c r="AC30">
         <f t="shared" si="18"/>
@@ -14267,11 +14267,11 @@
       </c>
       <c r="AD30">
         <f t="shared" si="19"/>
-        <v>1.2715906215522814</v>
+        <v>1.1778475400336661</v>
       </c>
       <c r="AE30">
         <f t="shared" si="20"/>
-        <v>-85.46368426131734</v>
+        <v>-122.84607205730579</v>
       </c>
       <c r="AF30">
         <f t="shared" si="21"/>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="AH30">
         <f t="shared" si="23"/>
-        <v>1.4733395345663638</v>
+        <v>-35.909048261422079</v>
       </c>
       <c r="AI30">
         <v>2</v>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="BA30">
         <f t="shared" si="30"/>
-        <v>6.0134745239630183</v>
+        <v>7.3745604246289362</v>
       </c>
       <c r="BB30">
         <f t="shared" si="31"/>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="BC30">
         <f t="shared" si="32"/>
-        <v>3.7562579110130112E-2</v>
+        <v>4.563053968491082E-2</v>
       </c>
       <c r="BD30">
         <f t="shared" si="33"/>
@@ -14438,10 +14438,10 @@
         <v>404.64600000000002</v>
       </c>
       <c r="BZ30">
-        <v>412.51665026413201</v>
+        <v>414.48973005282602</v>
       </c>
       <c r="CA30">
-        <v>35.870164904948403</v>
+        <v>36.813392980989697</v>
       </c>
       <c r="CB30">
         <v>33.706800000000001</v>
@@ -14957,22 +14957,22 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>5.140812583912326</v>
+        <v>6.936442180870686</v>
       </c>
       <c r="K31">
         <v>1629739546.5</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>5.6235843266709794E-3</v>
+        <v>6.9732087217648344E-3</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>5.6235843266709793</v>
+        <v>6.9732087217648342</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>26.69279580070404</v>
+        <v>34.623150513595192</v>
       </c>
       <c r="O31">
         <f t="shared" si="4"/>
@@ -14980,11 +14980,11 @@
       </c>
       <c r="P31">
         <f t="shared" si="5"/>
-        <v>237.82473082998533</v>
+        <v>245.41103874438269</v>
       </c>
       <c r="Q31">
         <f t="shared" si="6"/>
-        <v>23.629949542937169</v>
+        <v>24.383715026487934</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="S31">
         <f t="shared" si="8"/>
-        <v>0.36532192622522675</v>
+        <v>0.513016517523045</v>
       </c>
       <c r="T31">
         <f t="shared" si="9"/>
@@ -15000,11 +15000,11 @@
       </c>
       <c r="U31">
         <f t="shared" si="10"/>
-        <v>0.34195266417724918</v>
+        <v>0.46817423763858534</v>
       </c>
       <c r="V31">
         <f t="shared" si="11"/>
-        <v>0.21569535570237933</v>
+        <v>0.29631047430813529</v>
       </c>
       <c r="W31">
         <f t="shared" si="12"/>
@@ -15012,7 +15012,7 @@
       </c>
       <c r="X31">
         <f t="shared" si="13"/>
-        <v>33.86970638290834</v>
+        <v>33.523010174932253</v>
       </c>
       <c r="Y31">
         <f t="shared" si="14"/>
@@ -15024,11 +15024,11 @@
       </c>
       <c r="AA31">
         <f t="shared" si="16"/>
-        <v>71.161500618455278</v>
+        <v>74.024857043909137</v>
       </c>
       <c r="AB31">
         <f t="shared" si="17"/>
-        <v>3.6852880686219476</v>
+        <v>3.8335746165337894</v>
       </c>
       <c r="AC31">
         <f t="shared" si="18"/>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="AD31">
         <f t="shared" si="19"/>
-        <v>1.5605650039410111</v>
+        <v>1.4122784560291692</v>
       </c>
       <c r="AE31">
         <f t="shared" si="20"/>
-        <v>-248.0000688061902</v>
+        <v>-307.51850462982918</v>
       </c>
       <c r="AF31">
         <f t="shared" si="21"/>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AH31">
         <f t="shared" si="23"/>
-        <v>34.040672090196431</v>
+        <v>-25.477763733442551</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="BA31">
         <f t="shared" si="30"/>
-        <v>26.69279580070404</v>
+        <v>34.623150513595192</v>
       </c>
       <c r="BB31">
         <f t="shared" si="31"/>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="BC31">
         <f t="shared" si="32"/>
-        <v>1.6068676679252734E-2</v>
+        <v>2.0785483024282455E-2</v>
       </c>
       <c r="BD31">
         <f t="shared" si="33"/>
@@ -15207,10 +15207,10 @@
         <v>369.49400000000003</v>
       </c>
       <c r="BZ31">
-        <v>402.80131714493399</v>
+        <v>412.55946342898699</v>
       </c>
       <c r="CA31">
-        <v>37.090753890879</v>
+        <v>38.583190778175798</v>
       </c>
       <c r="CB31">
         <v>30.821899999999999</v>
@@ -15726,22 +15726,22 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>6.6740978125894701</v>
+        <v>6.2619277724247731</v>
       </c>
       <c r="K32">
         <v>1629739944</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.6309619247326284E-3</v>
+        <v>5.5809513199751174E-3</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>5.6309619247326284</v>
+        <v>5.5809513199751173</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>33.452076413964001</v>
+        <v>31.431453739214643</v>
       </c>
       <c r="O32">
         <f t="shared" si="4"/>
@@ -15749,11 +15749,11 @@
       </c>
       <c r="P32">
         <f t="shared" si="5"/>
-        <v>252.16111090220545</v>
+        <v>257.69679254186786</v>
       </c>
       <c r="Q32">
         <f t="shared" si="6"/>
-        <v>25.055986515347644</v>
+        <v>25.60603947165157</v>
       </c>
       <c r="R32">
         <f t="shared" si="7"/>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="S32">
         <f t="shared" si="8"/>
-        <v>0.4876574162618767</v>
+        <v>0.48054806632343172</v>
       </c>
       <c r="T32">
         <f t="shared" si="9"/>
@@ -15769,11 +15769,11 @@
       </c>
       <c r="U32">
         <f t="shared" si="10"/>
-        <v>0.44696040790479791</v>
+        <v>0.44097748162997374</v>
       </c>
       <c r="V32">
         <f t="shared" si="11"/>
-        <v>0.28272315025160466</v>
+        <v>0.27889414572376764</v>
       </c>
       <c r="W32">
         <f t="shared" si="12"/>
@@ -15781,7 +15781,7 @@
       </c>
       <c r="X32">
         <f t="shared" si="13"/>
-        <v>32.678118550051494</v>
+        <v>32.690965484480678</v>
       </c>
       <c r="Y32">
         <f t="shared" si="14"/>
@@ -15793,11 +15793,11 @@
       </c>
       <c r="AA32">
         <f t="shared" si="16"/>
-        <v>75.165228887089725</v>
+        <v>75.056979489269963</v>
       </c>
       <c r="AB32">
         <f t="shared" si="17"/>
-        <v>3.8163948189767716</v>
+        <v>3.8108986281567145</v>
       </c>
       <c r="AC32">
         <f t="shared" si="18"/>
@@ -15805,11 +15805,11 @@
       </c>
       <c r="AD32">
         <f t="shared" si="19"/>
-        <v>1.1962190957192371</v>
+        <v>1.2017152865392942</v>
       </c>
       <c r="AE32">
         <f t="shared" si="20"/>
-        <v>-248.32542088070892</v>
+        <v>-246.11995321090268</v>
       </c>
       <c r="AF32">
         <f t="shared" si="21"/>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="AH32">
         <f t="shared" si="23"/>
-        <v>-31.295899967530048</v>
+        <v>-29.090432297723808</v>
       </c>
       <c r="AI32">
         <v>1</v>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="BA32">
         <f t="shared" si="30"/>
-        <v>33.452076413964001</v>
+        <v>31.431453739214643</v>
       </c>
       <c r="BB32">
         <f t="shared" si="31"/>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="BC32">
         <f t="shared" si="32"/>
-        <v>3.6507505596908511E-2</v>
+        <v>3.4323440835738621E-2</v>
       </c>
       <c r="BD32">
         <f t="shared" si="33"/>
@@ -15976,10 +15976,10 @@
         <v>376.745</v>
       </c>
       <c r="BZ32">
-        <v>417.92619734828901</v>
+        <v>415.56523946965802</v>
       </c>
       <c r="CA32">
-        <v>38.407841439614998</v>
+        <v>38.352528287923001</v>
       </c>
       <c r="CB32">
         <v>32.139600000000002</v>
@@ -16495,22 +16495,22 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>5.9968530651585805</v>
+        <v>5.1293587398575191</v>
       </c>
       <c r="K33">
         <v>1629740794.0999999</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>3.7711755300829613E-3</v>
+        <v>3.9349701404038139E-3</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>3.7711755300829615</v>
+        <v>3.9349701404038138</v>
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>30.87218257550391</v>
+        <v>26.278168014806859</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -16518,11 +16518,11 @@
       </c>
       <c r="P33">
         <f t="shared" si="5"/>
-        <v>214.1256437457474</v>
+        <v>246.17339734985771</v>
       </c>
       <c r="Q33">
         <f t="shared" si="6"/>
-        <v>21.276794155896162</v>
+        <v>24.461249061274941</v>
       </c>
       <c r="R33">
         <f t="shared" si="7"/>
@@ -16530,7 +16530,7 @@
       </c>
       <c r="S33">
         <f t="shared" si="8"/>
-        <v>0.31657134570691048</v>
+        <v>0.336514979260429</v>
       </c>
       <c r="T33">
         <f t="shared" si="9"/>
@@ -16538,11 +16538,11 @@
       </c>
       <c r="U33">
         <f t="shared" si="10"/>
-        <v>0.29885073853553323</v>
+        <v>0.31656679308173208</v>
       </c>
       <c r="V33">
         <f t="shared" si="11"/>
-        <v>0.18829112795800834</v>
+        <v>0.19954789660068875</v>
       </c>
       <c r="W33">
         <f t="shared" si="12"/>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="X33">
         <f t="shared" si="13"/>
-        <v>32.480580545960365</v>
+        <v>32.438458689405181</v>
       </c>
       <c r="Y33">
         <f t="shared" si="14"/>
@@ -16562,11 +16562,11 @@
       </c>
       <c r="AA33">
         <f t="shared" si="16"/>
-        <v>74.60591204463141</v>
+        <v>74.969594008967917</v>
       </c>
       <c r="AB33">
         <f t="shared" si="17"/>
-        <v>3.7045139085915846</v>
+        <v>3.7225723286050352</v>
       </c>
       <c r="AC33">
         <f t="shared" si="18"/>
@@ -16574,11 +16574,11 @@
       </c>
       <c r="AD33">
         <f t="shared" si="19"/>
-        <v>1.1995757330585759</v>
+        <v>1.1815173130451253</v>
       </c>
       <c r="AE33">
         <f t="shared" si="20"/>
-        <v>-166.30884087665859</v>
+        <v>-173.5321831918082</v>
       </c>
       <c r="AF33">
         <f t="shared" si="21"/>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="AH33">
         <f t="shared" si="23"/>
-        <v>1.5028096627146397</v>
+        <v>-5.7205326524349687</v>
       </c>
       <c r="AI33">
         <v>1</v>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="BA33">
         <f t="shared" si="30"/>
-        <v>30.87218257550391</v>
+        <v>26.278168014806859</v>
       </c>
       <c r="BB33">
         <f t="shared" si="31"/>
@@ -16662,7 +16662,7 @@
       </c>
       <c r="BC33">
         <f t="shared" si="32"/>
-        <v>4.6339074971070891E-2</v>
+        <v>3.9514962002486116E-2</v>
       </c>
       <c r="BD33">
         <f t="shared" si="33"/>
@@ -16745,10 +16745,10 @@
         <v>384.07600000000002</v>
       </c>
       <c r="BZ33">
-        <v>421.49539740790698</v>
+        <v>416.24947948158098</v>
       </c>
       <c r="CA33">
-        <v>37.281529333329097</v>
+        <v>37.4632658666658</v>
       </c>
       <c r="CB33">
         <v>33.078200000000002</v>
@@ -17264,22 +17264,22 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>3.8756840034435922</v>
+        <v>4.2281676905204568</v>
       </c>
       <c r="K34">
         <v>1629741075.5999999</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>2.989615369734681E-3</v>
+        <v>3.7860486193227773E-3</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>2.9896153697346808</v>
+        <v>3.7860486193227771</v>
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>20.681426287063335</v>
+        <v>22.026688832336973</v>
       </c>
       <c r="O34">
         <f t="shared" si="4"/>
@@ -17287,11 +17287,11 @@
       </c>
       <c r="P34">
         <f t="shared" si="5"/>
-        <v>232.61741757998348</v>
+        <v>265.05537885342187</v>
       </c>
       <c r="Q34">
         <f t="shared" si="6"/>
-        <v>23.116242633851982</v>
+        <v>26.339749244600373</v>
       </c>
       <c r="R34">
         <f t="shared" si="7"/>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="S34">
         <f t="shared" si="8"/>
-        <v>0.23173187669538647</v>
+        <v>0.31991811836558431</v>
       </c>
       <c r="T34">
         <f t="shared" si="9"/>
@@ -17307,11 +17307,11 @@
       </c>
       <c r="U34">
         <f t="shared" si="10"/>
-        <v>0.22209727573560389</v>
+        <v>0.3018622013125784</v>
       </c>
       <c r="V34">
         <f t="shared" si="11"/>
-        <v>0.1396430481534526</v>
+        <v>0.19020115527072334</v>
       </c>
       <c r="W34">
         <f t="shared" si="12"/>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="X34">
         <f t="shared" si="13"/>
-        <v>32.595948709825642</v>
+        <v>32.391477759532115</v>
       </c>
       <c r="Y34">
         <f t="shared" si="14"/>
@@ -17331,11 +17331,11 @@
       </c>
       <c r="AA34">
         <f t="shared" si="16"/>
-        <v>72.590228159310826</v>
+        <v>74.355530075169952</v>
       </c>
       <c r="AB34">
         <f t="shared" si="17"/>
-        <v>3.6153610911468848</v>
+        <v>3.7032820692531572</v>
       </c>
       <c r="AC34">
         <f t="shared" si="18"/>
@@ -17343,11 +17343,11 @@
       </c>
       <c r="AD34">
         <f t="shared" si="19"/>
-        <v>1.2803808997075503</v>
+        <v>1.1924599216012779</v>
       </c>
       <c r="AE34">
         <f t="shared" si="20"/>
-        <v>-131.84203780529944</v>
+        <v>-166.96474411213447</v>
       </c>
       <c r="AF34">
         <f t="shared" si="21"/>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="AH34">
         <f t="shared" si="23"/>
-        <v>26.507427334079011</v>
+        <v>-8.6152789727560162</v>
       </c>
       <c r="AI34">
         <v>2</v>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="BA34">
         <f t="shared" si="30"/>
-        <v>20.681426287063335</v>
+        <v>22.026688832336973</v>
       </c>
       <c r="BB34">
         <f t="shared" si="31"/>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="BC34">
         <f t="shared" si="32"/>
-        <v>3.8394614947082947E-2</v>
+        <v>4.0853609973369863E-2</v>
       </c>
       <c r="BD34">
         <f t="shared" si="33"/>
@@ -17514,10 +17514,10 @@
         <v>387.35599999999999</v>
       </c>
       <c r="BZ34">
-        <v>412.64342780551402</v>
+        <v>414.55828556110299</v>
       </c>
       <c r="CA34">
-        <v>36.381170329565798</v>
+        <v>37.265914065913201</v>
       </c>
       <c r="CB34">
         <v>33.045499999999997</v>
@@ -18033,22 +18033,22 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>4.4765481841747201</v>
+        <v>3.7199113547135507</v>
       </c>
       <c r="K35">
         <v>1629741528.5999999</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>4.0810666517883069E-3</v>
+        <v>3.7006185682658694E-3</v>
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
-        <v>4.0810666517883067</v>
+        <v>3.7006185682658694</v>
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
-        <v>23.042198983827504</v>
+        <v>19.363478051297832</v>
       </c>
       <c r="O35">
         <f t="shared" si="4"/>
@@ -18056,11 +18056,11 @@
       </c>
       <c r="P35">
         <f t="shared" si="5"/>
-        <v>284.211840154924</v>
+        <v>287.63231025001016</v>
       </c>
       <c r="Q35">
         <f t="shared" si="6"/>
-        <v>28.244049554539526</v>
+        <v>28.583964762902315</v>
       </c>
       <c r="R35">
         <f t="shared" si="7"/>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="S35">
         <f t="shared" si="8"/>
-        <v>0.3849010050105891</v>
+        <v>0.33302791118241842</v>
       </c>
       <c r="T35">
         <f t="shared" si="9"/>
@@ -18076,11 +18076,11 @@
       </c>
       <c r="U35">
         <f t="shared" si="10"/>
-        <v>0.3590437422950658</v>
+        <v>0.31348071894031077</v>
       </c>
       <c r="V35">
         <f t="shared" si="11"/>
-        <v>0.22658059507014344</v>
+        <v>0.19758600847873731</v>
       </c>
       <c r="W35">
         <f t="shared" si="12"/>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="X35">
         <f t="shared" si="13"/>
-        <v>32.02244939174637</v>
+        <v>32.120280345519767</v>
       </c>
       <c r="Y35">
         <f t="shared" si="14"/>
@@ -18100,11 +18100,11 @@
       </c>
       <c r="AA35">
         <f t="shared" si="16"/>
-        <v>76.155642080148894</v>
+        <v>75.30641382971551</v>
       </c>
       <c r="AB35">
         <f t="shared" si="17"/>
-        <v>3.7603913687110166</v>
+        <v>3.7184584206618831</v>
       </c>
       <c r="AC35">
         <f t="shared" si="18"/>
@@ -18112,11 +18112,11 @@
       </c>
       <c r="AD35">
         <f t="shared" si="19"/>
-        <v>1.0806805144495932</v>
+        <v>1.1226134624987267</v>
       </c>
       <c r="AE35">
         <f t="shared" si="20"/>
-        <v>-179.97503934386432</v>
+        <v>-163.19727886052485</v>
       </c>
       <c r="AF35">
         <f t="shared" si="21"/>
@@ -18128,7 +18128,7 @@
       </c>
       <c r="AH35">
         <f t="shared" si="23"/>
-        <v>-37.779830800853979</v>
+        <v>-21.002070317514502</v>
       </c>
       <c r="AI35">
         <v>2</v>
@@ -18192,7 +18192,7 @@
       </c>
       <c r="BA35">
         <f t="shared" si="30"/>
-        <v>23.042198983827504</v>
+        <v>19.363478051297832</v>
       </c>
       <c r="BB35">
         <f t="shared" si="31"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="BC35">
         <f t="shared" si="32"/>
-        <v>5.5475938359045407E-2</v>
+        <v>4.6741720469954631E-2</v>
       </c>
       <c r="BD35">
         <f t="shared" si="33"/>
@@ -18283,10 +18283,10 @@
         <v>391.99700000000001</v>
       </c>
       <c r="BZ35">
-        <v>420.524236527646</v>
+        <v>416.09284730552901</v>
       </c>
       <c r="CA35">
-        <v>37.839749166998502</v>
+        <v>37.417789833399702</v>
       </c>
       <c r="CB35">
         <v>33.293999999999997</v>
@@ -18802,22 +18802,22 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>3.5122170037276224</v>
+        <v>2.4136779092805818</v>
       </c>
       <c r="K36">
         <v>1629742487.5</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>1.8609123132130969E-3</v>
+        <v>1.688630391276277E-3</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>1.8609123132130969</v>
+        <v>1.688630391276277</v>
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>18.65947759964769</v>
+        <v>12.890570402200455</v>
       </c>
       <c r="O36">
         <f t="shared" si="4"/>
@@ -18825,11 +18825,11 @@
       </c>
       <c r="P36">
         <f t="shared" si="5"/>
-        <v>211.67960538516871</v>
+        <v>252.55681640108082</v>
       </c>
       <c r="Q36">
         <f t="shared" si="6"/>
-        <v>21.025768277480836</v>
+        <v>25.086030791133808</v>
       </c>
       <c r="R36">
         <f t="shared" si="7"/>
@@ -18837,7 +18837,7 @@
       </c>
       <c r="S36">
         <f t="shared" si="8"/>
-        <v>0.16688247621124438</v>
+        <v>0.14835525647671918</v>
       </c>
       <c r="T36">
         <f t="shared" si="9"/>
@@ -18845,11 +18845,11 @@
       </c>
       <c r="U36">
         <f t="shared" si="10"/>
-        <v>0.16181584994821291</v>
+        <v>0.14433658743221309</v>
       </c>
       <c r="V36">
         <f t="shared" si="11"/>
-        <v>0.10157730901106238</v>
+        <v>9.0562361477861494E-2</v>
       </c>
       <c r="W36">
         <f t="shared" si="12"/>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="X36">
         <f t="shared" si="13"/>
-        <v>32.066238955810348</v>
+        <v>32.110541459452392</v>
       </c>
       <c r="Y36">
         <f t="shared" si="14"/>
@@ -18869,11 +18869,11 @@
       </c>
       <c r="AA36">
         <f t="shared" si="16"/>
-        <v>75.476946049889776</v>
+        <v>75.082658173085591</v>
       </c>
       <c r="AB36">
         <f t="shared" si="17"/>
-        <v>3.6466120213906312</v>
+        <v>3.6275622984395688</v>
       </c>
       <c r="AC36">
         <f t="shared" si="18"/>
@@ -18881,11 +18881,11 @@
       </c>
       <c r="AD36">
         <f t="shared" si="19"/>
-        <v>1.0940658096366076</v>
+        <v>1.11311553258767</v>
       </c>
       <c r="AE36">
         <f t="shared" si="20"/>
-        <v>-82.066233012697566</v>
+        <v>-74.468600255283818</v>
       </c>
       <c r="AF36">
         <f t="shared" si="21"/>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="AH36">
         <f t="shared" si="23"/>
-        <v>33.252695027602684</v>
+        <v>40.850327785016432</v>
       </c>
       <c r="AI36">
         <v>1</v>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="BA36">
         <f t="shared" si="30"/>
-        <v>18.65947759964769</v>
+        <v>12.890570402200455</v>
       </c>
       <c r="BB36">
         <f t="shared" si="31"/>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="BC36">
         <f t="shared" si="32"/>
-        <v>6.4340175599091817E-2</v>
+        <v>4.4787191008177754E-2</v>
       </c>
       <c r="BD36">
         <f t="shared" si="33"/>
@@ -19052,10 +19052,10 @@
         <v>400.98899999999998</v>
       </c>
       <c r="BZ36">
-        <v>423.45871366237299</v>
+        <v>416.69894273247502</v>
       </c>
       <c r="CA36">
-        <v>36.712731896104899</v>
+        <v>36.520946379221002</v>
       </c>
       <c r="CB36">
         <v>34.637099999999997</v>
@@ -19571,22 +19571,22 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>-0.2646655438349419</v>
+        <v>1.0072675655535246</v>
       </c>
       <c r="K37">
         <v>1629743006</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>3.2488929670813835E-3</v>
+        <v>2.5018135540107386E-3</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>3.2488929670813835</v>
+        <v>2.5018135540107385</v>
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>-1.3991904710994729</v>
+        <v>5.4428208333453538</v>
       </c>
       <c r="O37">
         <f t="shared" si="4"/>
@@ -19594,11 +19594,11 @@
       </c>
       <c r="P37">
         <f t="shared" si="5"/>
-        <v>406.08681272532345</v>
+        <v>357.71970749107004</v>
       </c>
       <c r="Q37">
         <f t="shared" si="6"/>
-        <v>40.34326618042958</v>
+        <v>35.538168010048501</v>
       </c>
       <c r="R37">
         <f t="shared" si="7"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="S37">
         <f t="shared" si="8"/>
-        <v>0.31501809249132046</v>
+        <v>0.22111460662966501</v>
       </c>
       <c r="T37">
         <f t="shared" si="9"/>
@@ -19614,11 +19614,11 @@
       </c>
       <c r="U37">
         <f t="shared" si="10"/>
-        <v>0.29748377121956582</v>
+        <v>0.21231900923850694</v>
       </c>
       <c r="V37">
         <f t="shared" si="11"/>
-        <v>0.18742136804185489</v>
+        <v>0.13346047712148496</v>
       </c>
       <c r="W37">
         <f t="shared" si="12"/>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="X37">
         <f t="shared" si="13"/>
-        <v>32.041076887857962</v>
+        <v>32.233004567392854</v>
       </c>
       <c r="Y37">
         <f t="shared" si="14"/>
@@ -19638,11 +19638,11 @@
       </c>
       <c r="AA37">
         <f t="shared" si="16"/>
-        <v>76.732534085288378</v>
+        <v>75.072311095826137</v>
       </c>
       <c r="AB37">
         <f t="shared" si="17"/>
-        <v>3.8081580083142677</v>
+        <v>3.7257628216014096</v>
       </c>
       <c r="AC37">
         <f t="shared" si="18"/>
@@ -19650,11 +19650,11 @@
       </c>
       <c r="AD37">
         <f t="shared" si="19"/>
-        <v>1.0377299255393448</v>
+        <v>1.1201251122522029</v>
       </c>
       <c r="AE37">
         <f t="shared" si="20"/>
-        <v>-143.27617984828902</v>
+        <v>-110.32997773187357</v>
       </c>
       <c r="AF37">
         <f t="shared" si="21"/>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="AH37">
         <f t="shared" si="23"/>
-        <v>-37.64251858501386</v>
+        <v>-4.6963164685984111</v>
       </c>
       <c r="AI37">
         <v>2</v>
@@ -19730,7 +19730,7 @@
       </c>
       <c r="BA37">
         <f t="shared" si="30"/>
-        <v>-1.3991904710994729</v>
+        <v>5.4428208333453538</v>
       </c>
       <c r="BB37">
         <f t="shared" si="31"/>
@@ -19738,7 +19738,7 @@
       </c>
       <c r="BC37">
         <f t="shared" si="32"/>
-        <v>-6.3845088699043722E-3</v>
+        <v>3.4222008878345284E-2</v>
       </c>
       <c r="BD37">
         <f t="shared" si="33"/>
@@ -19821,10 +19821,10 @@
         <v>405.65699999999998</v>
       </c>
       <c r="BZ37">
-        <v>405.56292803205002</v>
+        <v>413.13338560641</v>
       </c>
       <c r="CA37">
-        <v>38.332115724951699</v>
+        <v>37.502743144990298</v>
       </c>
       <c r="CB37">
         <v>34.7149</v>
@@ -20340,22 +20340,22 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>6.5870981126669035</v>
+        <v>6.329795738023944</v>
       </c>
       <c r="K38">
         <v>1629745200.5999999</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>6.6891738153195962E-3</v>
+        <v>5.8352395541233894E-3</v>
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
-        <v>6.6891738153195961</v>
+        <v>5.8352395541233895</v>
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>32.168067004583108</v>
+        <v>31.643907348490448</v>
       </c>
       <c r="O38">
         <f t="shared" si="4"/>
@@ -20363,11 +20363,11 @@
       </c>
       <c r="P38">
         <f t="shared" si="5"/>
-        <v>266.85459455985699</v>
+        <v>244.80912067910219</v>
       </c>
       <c r="Q38">
         <f t="shared" si="6"/>
-        <v>26.506713310330049</v>
+        <v>24.316932553842221</v>
       </c>
       <c r="R38">
         <f t="shared" si="7"/>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="S38">
         <f t="shared" si="8"/>
-        <v>0.54655103073438782</v>
+        <v>0.43618213061422989</v>
       </c>
       <c r="T38">
         <f t="shared" si="9"/>
@@ -20383,11 +20383,11 @@
       </c>
       <c r="U38">
         <f t="shared" si="10"/>
-        <v>0.49595076214445571</v>
+        <v>0.40329653796178555</v>
       </c>
       <c r="V38">
         <f t="shared" si="11"/>
-        <v>0.31412414744716227</v>
+        <v>0.2548080484281206</v>
       </c>
       <c r="W38">
         <f t="shared" si="12"/>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="13"/>
-        <v>33.835000898896247</v>
+        <v>34.054383896906899</v>
       </c>
       <c r="Y38">
         <f t="shared" si="14"/>
@@ -20407,11 +20407,11 @@
       </c>
       <c r="AA38">
         <f t="shared" si="16"/>
-        <v>77.015728747696485</v>
+        <v>75.233255161164607</v>
       </c>
       <c r="AB38">
         <f t="shared" si="17"/>
-        <v>4.0422333081868933</v>
+        <v>3.9486787288872982</v>
       </c>
       <c r="AC38">
         <f t="shared" si="18"/>
@@ -20419,11 +20419,11 @@
       </c>
       <c r="AD38">
         <f t="shared" si="19"/>
-        <v>1.2765943023532405</v>
+        <v>1.3701488816528355</v>
       </c>
       <c r="AE38">
         <f t="shared" si="20"/>
-        <v>-294.99256525559417</v>
+        <v>-257.33406433684149</v>
       </c>
       <c r="AF38">
         <f t="shared" si="21"/>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="AH38">
         <f t="shared" si="23"/>
-        <v>-14.370933783090301</v>
+        <v>23.287567135662378</v>
       </c>
       <c r="AI38">
         <v>2</v>
@@ -20499,7 +20499,7 @@
       </c>
       <c r="BA38">
         <f t="shared" si="30"/>
-        <v>32.168067004583108</v>
+        <v>31.643907348490448</v>
       </c>
       <c r="BB38">
         <f t="shared" si="31"/>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="BC38">
         <f t="shared" si="32"/>
-        <v>1.9328245126228417E-2</v>
+        <v>1.9016437816151536E-2</v>
       </c>
       <c r="BD38">
         <f t="shared" si="33"/>
@@ -20590,10 +20590,10 @@
         <v>376.10599999999999</v>
       </c>
       <c r="BZ38">
-        <v>416.25310068430798</v>
+        <v>415.27462013686102</v>
       </c>
       <c r="CA38">
-        <v>40.694918224817499</v>
+        <v>39.753063644963497</v>
       </c>
       <c r="CB38">
         <v>33.267200000000003</v>
@@ -21109,22 +21109,22 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>8.1227378490624798</v>
+        <v>5.8964402489445735</v>
       </c>
       <c r="K39">
         <v>1629745923.5</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>5.4461492267445302E-3</v>
+        <v>4.5855080060544558E-3</v>
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
-        <v>5.4461492267445299</v>
+        <v>4.5855080060544555</v>
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>40.108361089405456</v>
+        <v>29.848161035964718</v>
       </c>
       <c r="O39">
         <f t="shared" si="4"/>
@@ -21132,11 +21132,11 @@
       </c>
       <c r="P39">
         <f t="shared" si="5"/>
-        <v>243.87896101175963</v>
+        <v>248.10691729200494</v>
       </c>
       <c r="Q39">
         <f t="shared" si="6"/>
-        <v>24.222524216503498</v>
+        <v>24.642452909653958</v>
       </c>
       <c r="R39">
         <f t="shared" si="7"/>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="S39">
         <f t="shared" si="8"/>
-        <v>0.52720485135331563</v>
+        <v>0.3994306260879163</v>
       </c>
       <c r="T39">
         <f t="shared" si="9"/>
@@ -21152,11 +21152,11 @@
       </c>
       <c r="U39">
         <f t="shared" si="10"/>
-        <v>0.47997013872936056</v>
+        <v>0.371671684628891</v>
       </c>
       <c r="V39">
         <f t="shared" si="11"/>
-        <v>0.30387173963086844</v>
+        <v>0.2346278749519326</v>
       </c>
       <c r="W39">
         <f t="shared" si="12"/>
@@ -21164,7 +21164,7 @@
       </c>
       <c r="X39">
         <f t="shared" si="13"/>
-        <v>32.413677802309046</v>
+        <v>32.634865619779497</v>
       </c>
       <c r="Y39">
         <f t="shared" si="14"/>
@@ -21176,11 +21176,11 @@
       </c>
       <c r="AA39">
         <f t="shared" si="16"/>
-        <v>77.256043729289985</v>
+        <v>75.359371212705653</v>
       </c>
       <c r="AB39">
         <f t="shared" si="17"/>
-        <v>3.8543969216821803</v>
+        <v>3.7597696490900399</v>
       </c>
       <c r="AC39">
         <f t="shared" si="18"/>
@@ -21188,11 +21188,11 @@
       </c>
       <c r="AD39">
         <f t="shared" si="19"/>
-        <v>1.0771444639341365</v>
+        <v>1.171771736526277</v>
       </c>
       <c r="AE39">
         <f t="shared" si="20"/>
-        <v>-240.17518089943377</v>
+        <v>-202.2209030670015</v>
       </c>
       <c r="AF39">
         <f t="shared" si="21"/>
@@ -21204,7 +21204,7 @@
       </c>
       <c r="AH39">
         <f t="shared" si="23"/>
-        <v>-26.963632910787489</v>
+        <v>10.99064492164478</v>
       </c>
       <c r="AI39">
         <v>2</v>
@@ -21268,7 +21268,7 @@
       </c>
       <c r="BA39">
         <f t="shared" si="30"/>
-        <v>40.108361089405456</v>
+        <v>29.848161035964718</v>
       </c>
       <c r="BB39">
         <f t="shared" si="31"/>
@@ -21276,7 +21276,7 @@
       </c>
       <c r="BC39">
         <f t="shared" si="32"/>
-        <v>4.3699830653035135E-2</v>
+        <v>3.2610314423122781E-2</v>
       </c>
       <c r="BD39">
         <f t="shared" si="33"/>
@@ -21359,10 +21359,10 @@
         <v>381.47399999999999</v>
       </c>
       <c r="BZ39">
-        <v>430.317389006795</v>
+        <v>418.05787780135898</v>
       </c>
       <c r="CA39">
-        <v>38.807116392366801</v>
+        <v>37.854383278473399</v>
       </c>
       <c r="CB39">
         <v>32.746200000000002</v>
@@ -21878,22 +21878,22 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>1.4452437692270683</v>
+        <v>3.9885483377687261</v>
       </c>
       <c r="K40">
         <v>1629746272.5</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>2.6309862799323278E-3</v>
+        <v>3.9240413916195385E-3</v>
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
-        <v>2.630986279932328</v>
+        <v>3.9240413916195385</v>
       </c>
       <c r="N40">
         <f t="shared" si="3"/>
-        <v>7.7828087096762832</v>
+        <v>20.658472350990021</v>
       </c>
       <c r="O40">
         <f t="shared" si="4"/>
@@ -21901,11 +21901,11 @@
       </c>
       <c r="P40">
         <f t="shared" si="5"/>
-        <v>310.427434624358</v>
+        <v>272.16596416435499</v>
       </c>
       <c r="Q40">
         <f t="shared" si="6"/>
-        <v>30.834638466914708</v>
+        <v>27.034141225830471</v>
       </c>
       <c r="R40">
         <f t="shared" si="7"/>
@@ -21913,7 +21913,7 @@
       </c>
       <c r="S40">
         <f t="shared" si="8"/>
-        <v>0.19116810297124257</v>
+        <v>0.32617178367363325</v>
       </c>
       <c r="T40">
         <f t="shared" si="9"/>
@@ -21921,11 +21921,11 @@
       </c>
       <c r="U40">
         <f t="shared" si="10"/>
-        <v>0.18455442535725758</v>
+        <v>0.30741108705795084</v>
       </c>
       <c r="V40">
         <f t="shared" si="11"/>
-        <v>0.11592166673293726</v>
+        <v>0.1937275218804887</v>
       </c>
       <c r="W40">
         <f t="shared" si="12"/>
@@ -21933,7 +21933,7 @@
       </c>
       <c r="X40">
         <f t="shared" si="13"/>
-        <v>32.963767502743295</v>
+        <v>32.631580633208507</v>
       </c>
       <c r="Y40">
         <f t="shared" si="14"/>
@@ -21945,11 +21945,11 @@
       </c>
       <c r="AA40">
         <f t="shared" si="16"/>
-        <v>71.579299941543198</v>
+        <v>74.421660120849523</v>
       </c>
       <c r="AB40">
         <f t="shared" si="17"/>
-        <v>3.5924159200432397</v>
+        <v>3.7350680550456214</v>
       </c>
       <c r="AC40">
         <f t="shared" si="18"/>
@@ -21957,11 +21957,11 @@
       </c>
       <c r="AD40">
         <f t="shared" si="19"/>
-        <v>1.3551588493978848</v>
+        <v>1.2125067143955031</v>
       </c>
       <c r="AE40">
         <f t="shared" si="20"/>
-        <v>-116.02649494501566</v>
+        <v>-173.05022537042166</v>
       </c>
       <c r="AF40">
         <f t="shared" si="21"/>
@@ -21973,7 +21973,7 @@
       </c>
       <c r="AH40">
         <f t="shared" si="23"/>
-        <v>57.56582645698073</v>
+        <v>0.54209603157472941</v>
       </c>
       <c r="AI40">
         <v>3</v>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="BA40">
         <f t="shared" si="30"/>
-        <v>7.7828087096762832</v>
+        <v>20.658472350990021</v>
       </c>
       <c r="BB40">
         <f t="shared" si="31"/>
@@ -22045,7 +22045,7 @@
       </c>
       <c r="BC40">
         <f t="shared" si="32"/>
-        <v>1.2038827324416941E-2</v>
+        <v>3.1160875731282942E-2</v>
       </c>
       <c r="BD40">
         <f t="shared" si="33"/>
@@ -22128,10 +22128,10 @@
         <v>385.46300000000002</v>
       </c>
       <c r="BZ40">
-        <v>395.64612832158298</v>
+        <v>411.12762566431599</v>
       </c>
       <c r="CA40">
-        <v>36.166613704886103</v>
+        <v>37.602762740977198</v>
       </c>
       <c r="CB40">
         <v>33.231200000000001</v>
@@ -22647,22 +22647,22 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>6.4862043753854879</v>
+        <v>4.543911247211339</v>
       </c>
       <c r="K41">
         <v>1629746523.5</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>2.9072234028251365E-3</v>
+        <v>3.8788014261656933E-3</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>2.9072234028251365</v>
+        <v>3.8788014261656931</v>
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>34.771305529645659</v>
+        <v>23.662362358749661</v>
       </c>
       <c r="O41">
         <f t="shared" si="4"/>
@@ -22670,11 +22670,11 @@
       </c>
       <c r="P41">
         <f t="shared" si="5"/>
-        <v>124.47413203923696</v>
+        <v>261.61340375516363</v>
       </c>
       <c r="Q41">
         <f t="shared" si="6"/>
-        <v>12.364114579524269</v>
+        <v>25.98626756078577</v>
       </c>
       <c r="R41">
         <f t="shared" si="7"/>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="S41">
         <f t="shared" si="8"/>
-        <v>0.22258046847963908</v>
+        <v>0.32983174069882881</v>
       </c>
       <c r="T41">
         <f t="shared" si="9"/>
@@ -22690,11 +22690,11 @@
       </c>
       <c r="U41">
         <f t="shared" si="10"/>
-        <v>0.2136670058613562</v>
+        <v>0.3106562712453616</v>
       </c>
       <c r="V41">
         <f t="shared" si="11"/>
-        <v>0.13431297504042622</v>
+        <v>0.19579004541487399</v>
       </c>
       <c r="W41">
         <f t="shared" si="12"/>
@@ -22702,7 +22702,7 @@
       </c>
       <c r="X41">
         <f t="shared" si="13"/>
-        <v>32.747448726799526</v>
+        <v>32.497788439899722</v>
       </c>
       <c r="Y41">
         <f t="shared" si="14"/>
@@ -22714,11 +22714,11 @@
       </c>
       <c r="AA41">
         <f t="shared" si="16"/>
-        <v>72.547440017562167</v>
+        <v>74.683420365813518</v>
       </c>
       <c r="AB41">
         <f t="shared" si="17"/>
-        <v>3.6398379000775636</v>
+        <v>3.7470039451303463</v>
       </c>
       <c r="AC41">
         <f t="shared" si="18"/>
@@ -22726,11 +22726,11 @@
       </c>
       <c r="AD41">
         <f t="shared" si="19"/>
-        <v>1.2932046918911162</v>
+        <v>1.1860386468383335</v>
       </c>
       <c r="AE41">
         <f t="shared" si="20"/>
-        <v>-128.20855206458853</v>
+        <v>-171.05514289390709</v>
       </c>
       <c r="AF41">
         <f t="shared" si="21"/>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="AH41">
         <f t="shared" si="23"/>
-        <v>29.384178923271627</v>
+        <v>-13.462411906046931</v>
       </c>
       <c r="AI41">
         <v>3</v>
@@ -22806,7 +22806,7 @@
       </c>
       <c r="BA41">
         <f t="shared" si="30"/>
-        <v>34.771305529645659</v>
+        <v>23.662362358749661</v>
       </c>
       <c r="BB41">
         <f t="shared" si="31"/>
@@ -22814,7 +22814,7 @@
       </c>
       <c r="BC41">
         <f t="shared" si="32"/>
-        <v>6.4142079336386743E-2</v>
+        <v>4.3838444017397456E-2</v>
       </c>
       <c r="BD41">
         <f t="shared" si="33"/>
@@ -22897,10 +22897,10 @@
         <v>388.91300000000001</v>
       </c>
       <c r="BZ41">
-        <v>430.48231798525399</v>
+        <v>418.05726359705102</v>
       </c>
       <c r="CA41">
-        <v>36.6435995446029</v>
+        <v>37.722479908920597</v>
       </c>
       <c r="CB41">
         <v>33.400799999999997</v>
@@ -23416,22 +23416,22 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>5.2466318957583757</v>
+        <v>3.6583042465644122</v>
       </c>
       <c r="K42">
         <v>1629747299.0999999</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>2.5860752685940825E-3</v>
+        <v>3.303627451596272E-3</v>
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
-        <v>2.5860752685940827</v>
+        <v>3.303627451596272</v>
       </c>
       <c r="N42">
         <f t="shared" si="3"/>
-        <v>28.404106084357764</v>
+        <v>19.374738899839002</v>
       </c>
       <c r="O42">
         <f t="shared" si="4"/>
@@ -23439,11 +23439,11 @@
       </c>
       <c r="P42">
         <f t="shared" si="5"/>
-        <v>163.10593109965731</v>
+        <v>275.12829822670921</v>
       </c>
       <c r="Q42">
         <f t="shared" si="6"/>
-        <v>16.196450046186438</v>
+        <v>27.320292453365866</v>
       </c>
       <c r="R42">
         <f t="shared" si="7"/>
@@ -23451,7 +23451,7 @@
       </c>
       <c r="S42">
         <f t="shared" si="8"/>
-        <v>0.20894845425743735</v>
+        <v>0.28941153161303512</v>
       </c>
       <c r="T42">
         <f t="shared" si="9"/>
@@ -23459,11 +23459,11 @@
       </c>
       <c r="U42">
         <f t="shared" si="10"/>
-        <v>0.20106576011909594</v>
+        <v>0.27452138913940022</v>
       </c>
       <c r="V42">
         <f t="shared" si="11"/>
-        <v>0.12634955179029028</v>
+        <v>0.17284982314832753</v>
       </c>
       <c r="W42">
         <f t="shared" si="12"/>
@@ -23471,7 +23471,7 @@
       </c>
       <c r="X42">
         <f t="shared" si="13"/>
-        <v>32.281893999192206</v>
+        <v>32.097301177445502</v>
       </c>
       <c r="Y42">
         <f t="shared" si="14"/>
@@ -23483,11 +23483,11 @@
       </c>
       <c r="AA42">
         <f t="shared" si="16"/>
-        <v>72.705035241183936</v>
+        <v>74.320561615307085</v>
       </c>
       <c r="AB42">
         <f t="shared" si="17"/>
-        <v>3.5647961534038428</v>
+        <v>3.6440069286285883</v>
       </c>
       <c r="AC42">
         <f t="shared" si="18"/>
@@ -23495,11 +23495,11 @@
       </c>
       <c r="AD42">
         <f t="shared" si="19"/>
-        <v>1.223465145356105</v>
+        <v>1.1442543701313594</v>
       </c>
       <c r="AE42">
         <f t="shared" si="20"/>
-        <v>-114.04591934499904</v>
+        <v>-145.68997061539559</v>
       </c>
       <c r="AF42">
         <f t="shared" si="21"/>
@@ -23511,7 +23511,7 @@
       </c>
       <c r="AH42">
         <f t="shared" si="23"/>
-        <v>39.964963426190138</v>
+        <v>8.3209121557935788</v>
       </c>
       <c r="AI42">
         <v>2</v>
@@ -23575,7 +23575,7 @@
       </c>
       <c r="BA42">
         <f t="shared" si="30"/>
-        <v>28.404106084357764</v>
+        <v>19.374738899839002</v>
       </c>
       <c r="BB42">
         <f t="shared" si="31"/>
@@ -23583,7 +23583,7 @@
       </c>
       <c r="BC42">
         <f t="shared" si="32"/>
-        <v>6.8192912252699897E-2</v>
+        <v>4.6759161729548658E-2</v>
       </c>
       <c r="BD42">
         <f t="shared" si="33"/>
@@ -23666,10 +23666,10 @@
         <v>393.60899999999998</v>
       </c>
       <c r="BZ42">
-        <v>427.66456527016499</v>
+        <v>417.54011305403299</v>
       </c>
       <c r="CA42">
-        <v>35.899187422142198</v>
+        <v>36.696877484428398</v>
       </c>
       <c r="CB42">
         <v>33.013300000000001</v>
@@ -24185,22 +24185,22 @@
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>5.4001492958060346</v>
+        <v>2.9051261970293365</v>
       </c>
       <c r="K43">
         <v>1629747713.5999999</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>2.4367314953450303E-3</v>
+        <v>3.0589317480189076E-3</v>
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
-        <v>2.4367314953450303</v>
+        <v>3.0589317480189075</v>
       </c>
       <c r="N43">
         <f t="shared" si="3"/>
-        <v>29.392177036350873</v>
+        <v>15.521151055627811</v>
       </c>
       <c r="O43">
         <f t="shared" si="4"/>
@@ -24208,11 +24208,11 @@
       </c>
       <c r="P43">
         <f t="shared" si="5"/>
-        <v>150.41988075285755</v>
+        <v>296.41693352387932</v>
       </c>
       <c r="Q43">
         <f t="shared" si="6"/>
-        <v>14.934801530693159</v>
+        <v>29.430471892138538</v>
       </c>
       <c r="R43">
         <f t="shared" si="7"/>
@@ -24220,7 +24220,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="8"/>
-        <v>0.19927810764250362</v>
+        <v>0.26848120585665297</v>
       </c>
       <c r="T43">
         <f t="shared" si="9"/>
@@ -24228,11 +24228,11 @@
       </c>
       <c r="U43">
         <f t="shared" si="10"/>
-        <v>0.19209596858160993</v>
+        <v>0.25561776172387596</v>
       </c>
       <c r="V43">
         <f t="shared" si="11"/>
-        <v>0.12068370142307669</v>
+        <v>0.16086545966846216</v>
       </c>
       <c r="W43">
         <f t="shared" si="12"/>
@@ -24240,7 +24240,7 @@
       </c>
       <c r="X43">
         <f t="shared" si="13"/>
-        <v>32.485357932105259</v>
+        <v>32.325357087634231</v>
       </c>
       <c r="Y43">
         <f t="shared" si="14"/>
@@ -24252,11 +24252,11 @@
       </c>
       <c r="AA43">
         <f t="shared" si="16"/>
-        <v>73.402601101744949</v>
+        <v>74.778804030138119</v>
       </c>
       <c r="AB43">
         <f t="shared" si="17"/>
-        <v>3.6616700213925046</v>
+        <v>3.7303215532267093</v>
       </c>
       <c r="AC43">
         <f t="shared" si="18"/>
@@ -24264,11 +24264,11 @@
       </c>
       <c r="AD43">
         <f t="shared" si="19"/>
-        <v>1.2053646820492609</v>
+        <v>1.1367131502150563</v>
       </c>
       <c r="AE43">
         <f t="shared" si="20"/>
-        <v>-107.45985894471583</v>
+        <v>-134.89889008763382</v>
       </c>
       <c r="AF43">
         <f t="shared" si="21"/>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="AH43">
         <f t="shared" si="23"/>
-        <v>25.362214667675644</v>
+        <v>-2.0768164752423388</v>
       </c>
       <c r="AI43">
         <v>4</v>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="BA43">
         <f t="shared" si="30"/>
-        <v>29.392177036350873</v>
+        <v>15.521151055627811</v>
       </c>
       <c r="BB43">
         <f t="shared" si="31"/>
@@ -24352,7 +24352,7 @@
       </c>
       <c r="BC43">
         <f t="shared" si="32"/>
-        <v>0.10072111276313493</v>
+        <v>5.3705241114391102E-2</v>
       </c>
       <c r="BD43">
         <f t="shared" si="33"/>
@@ -24435,10 +24435,10 @@
         <v>399.51900000000001</v>
       </c>
       <c r="BZ43">
-        <v>434.680227463611</v>
+        <v>418.90644549272201</v>
       </c>
       <c r="CA43">
-        <v>36.879496981746001</v>
+        <v>37.570939396349203</v>
       </c>
       <c r="CB43">
         <v>34.161999999999999</v>
@@ -24954,22 +24954,22 @@
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>2.1606707948473494</v>
+        <v>1.3497529281206391</v>
       </c>
       <c r="K44">
         <v>1629748578.5999999</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>1.8606202421672434E-3</v>
+        <v>2.1629261230044013E-3</v>
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
-        <v>1.8606202421672433</v>
+        <v>2.1629261230044015</v>
       </c>
       <c r="N44">
         <f t="shared" si="3"/>
-        <v>11.798520230283772</v>
+        <v>7.3041176878304759</v>
       </c>
       <c r="O44">
         <f t="shared" si="4"/>
@@ -24977,11 +24977,11 @@
       </c>
       <c r="P44">
         <f t="shared" si="5"/>
-        <v>277.9648057836788</v>
+        <v>336.67093491656118</v>
       </c>
       <c r="Q44">
         <f t="shared" si="6"/>
-        <v>27.581522416465436</v>
+        <v>33.406736195229314</v>
       </c>
       <c r="R44">
         <f t="shared" si="7"/>
@@ -24989,7 +24989,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="8"/>
-        <v>0.1583992390840849</v>
+        <v>0.19072319079218761</v>
       </c>
       <c r="T44">
         <f t="shared" si="9"/>
@@ -24997,11 +24997,11 @@
       </c>
       <c r="U44">
         <f t="shared" si="10"/>
-        <v>0.15382545501359166</v>
+        <v>0.18413402008211793</v>
       </c>
       <c r="V44">
         <f t="shared" si="11"/>
-        <v>9.6540844977645701E-2</v>
+        <v>0.11565680848422995</v>
       </c>
       <c r="W44">
         <f t="shared" si="12"/>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="X44">
         <f t="shared" si="13"/>
-        <v>32.28745544124007</v>
+        <v>32.209711415961713</v>
       </c>
       <c r="Y44">
         <f t="shared" si="14"/>
@@ -25021,11 +25021,11 @@
       </c>
       <c r="AA44">
         <f t="shared" si="16"/>
-        <v>74.493157285003548</v>
+        <v>75.169530469638858</v>
       </c>
       <c r="AB44">
         <f t="shared" si="17"/>
-        <v>3.6741992828053891</v>
+        <v>3.7075597948372261</v>
       </c>
       <c r="AC44">
         <f t="shared" si="18"/>
@@ -25033,11 +25033,11 @@
       </c>
       <c r="AD44">
         <f t="shared" si="19"/>
-        <v>1.1488222326941648</v>
+        <v>1.1154617206623278</v>
       </c>
       <c r="AE44">
         <f t="shared" si="20"/>
-        <v>-82.05335267957544</v>
+        <v>-95.385042024494098</v>
       </c>
       <c r="AF44">
         <f t="shared" si="21"/>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="AH44">
         <f t="shared" si="23"/>
-        <v>19.000201426329411</v>
+        <v>5.6685120814107535</v>
       </c>
       <c r="AI44">
         <v>4</v>
@@ -25113,7 +25113,7 @@
       </c>
       <c r="BA44">
         <f t="shared" si="30"/>
-        <v>11.798520230283772</v>
+        <v>7.3041176878304759</v>
       </c>
       <c r="BB44">
         <f t="shared" si="31"/>
@@ -25121,7 +25121,7 @@
       </c>
       <c r="BC44">
         <f t="shared" si="32"/>
-        <v>7.1971503338132625E-2</v>
+        <v>4.5286943652037469E-2</v>
       </c>
       <c r="BD44">
         <f t="shared" si="33"/>
@@ -25204,10 +25204,10 @@
         <v>406.77600000000001</v>
       </c>
       <c r="BZ44">
-        <v>421.31250870895002</v>
+        <v>416.25130174178997</v>
       </c>
       <c r="CA44">
-        <v>37.028343636529797</v>
+        <v>37.364548727306001</v>
       </c>
       <c r="CB44">
         <v>34.953899999999997</v>
